--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final2/Compare_Figure.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final2/Compare_Figure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Final2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(Finished)\Final2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74DC721-21E4-45C6-B6C3-89B7A3065CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9056F808-B0A5-41E1-94A2-80B920A92BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency" sheetId="2" r:id="rId1"/>
@@ -2961,12 +2961,12 @@
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0.05</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>0.31674799999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>0.30483399999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.15</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0.31775700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0.29650700000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.25</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0.32073699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.3</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0.36191699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.35</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0.33462599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.4</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0.32791599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.45</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0.45657599999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.49</v>
       </c>
@@ -3153,37 +3153,37 @@
         <v>0.53668199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
     </row>
   </sheetData>
@@ -3199,15 +3199,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3230,237 +3230,237 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>0.21509</v>
+        <v>0.43018000000000001</v>
       </c>
       <c r="C2">
-        <v>0.26227499999999998</v>
+        <v>0.52454999999999996</v>
       </c>
       <c r="D2">
-        <v>0.49252499999999999</v>
+        <v>0.98504999999999998</v>
       </c>
       <c r="E2">
-        <v>9516</v>
+        <v>4758</v>
       </c>
       <c r="F2">
-        <v>7804</v>
+        <v>3902</v>
       </c>
       <c r="G2">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>0.21621999999999997</v>
+        <v>0.43243999999999994</v>
       </c>
       <c r="C3">
-        <v>0.25608999999999998</v>
+        <v>0.51217999999999997</v>
       </c>
       <c r="D3">
-        <v>0.45319500000000001</v>
+        <v>0.90639000000000003</v>
       </c>
       <c r="E3">
-        <v>8520</v>
+        <v>4260</v>
       </c>
       <c r="F3">
-        <v>7193</v>
+        <v>3596</v>
       </c>
       <c r="G3">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>0.21524499999999996</v>
+        <v>0.43048999999999993</v>
       </c>
       <c r="C4">
-        <v>0.25577</v>
+        <v>0.51153999999999999</v>
       </c>
       <c r="D4">
-        <v>0.42898500000000006</v>
+        <v>0.85797000000000012</v>
       </c>
       <c r="E4">
-        <v>8559</v>
+        <v>4279</v>
       </c>
       <c r="F4">
-        <v>6402</v>
+        <v>3201</v>
       </c>
       <c r="G4">
-        <v>3817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>0.21551000000000001</v>
+        <v>0.43102000000000001</v>
       </c>
       <c r="C5">
-        <v>0.24837500000000001</v>
+        <v>0.49675000000000002</v>
       </c>
       <c r="D5">
-        <v>0.39892499999999997</v>
+        <v>0.79784999999999995</v>
       </c>
       <c r="E5">
-        <v>7598</v>
+        <v>3799</v>
       </c>
       <c r="F5">
-        <v>6593</v>
+        <v>3296</v>
       </c>
       <c r="G5">
-        <v>4105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>0.216085</v>
+        <v>0.43217</v>
       </c>
       <c r="C6">
-        <v>0.24515500000000004</v>
+        <v>0.49031000000000008</v>
       </c>
       <c r="D6">
-        <v>0.363705</v>
+        <v>0.72741</v>
       </c>
       <c r="E6">
-        <v>7578</v>
+        <v>3789</v>
       </c>
       <c r="F6">
-        <v>6679</v>
+        <v>3339</v>
       </c>
       <c r="G6">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.21569499999999997</v>
+        <v>0.43138999999999994</v>
       </c>
       <c r="C7">
-        <v>0.241175</v>
+        <v>0.48235</v>
       </c>
       <c r="D7">
-        <v>0.33453500000000003</v>
+        <v>0.66907000000000005</v>
       </c>
       <c r="E7">
-        <v>6643</v>
+        <v>3321</v>
       </c>
       <c r="F7">
-        <v>5941</v>
+        <v>2970</v>
       </c>
       <c r="G7">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>0.21718000000000004</v>
+        <v>0.43436000000000008</v>
       </c>
       <c r="C8">
-        <v>0.23872499999999999</v>
+        <v>0.47744999999999999</v>
       </c>
       <c r="D8">
-        <v>0.31684499999999999</v>
+        <v>0.63368999999999998</v>
       </c>
       <c r="E8">
-        <v>6597</v>
+        <v>3298</v>
       </c>
       <c r="F8">
-        <v>6002</v>
+        <v>3001</v>
       </c>
       <c r="G8">
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>0.21776999999999996</v>
+        <v>0.43553999999999993</v>
       </c>
       <c r="C9">
-        <v>0.23724999999999999</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="D9">
-        <v>0.29108499999999998</v>
+        <v>0.58216999999999997</v>
       </c>
       <c r="E9">
-        <v>5639</v>
+        <v>2819</v>
       </c>
       <c r="F9">
-        <v>5176</v>
+        <v>2588</v>
       </c>
       <c r="G9">
-        <v>4219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>0.22107499999999999</v>
+        <v>0.44214999999999999</v>
       </c>
       <c r="C10">
-        <v>0.23684499999999997</v>
+        <v>0.47368999999999994</v>
       </c>
       <c r="D10">
-        <v>0.280505</v>
+        <v>0.56101000000000001</v>
       </c>
       <c r="E10">
-        <v>5555</v>
+        <v>2777</v>
       </c>
       <c r="F10">
-        <v>5185</v>
+        <v>2592</v>
       </c>
       <c r="G10">
-        <v>3648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.49</v>
       </c>
       <c r="B11">
-        <v>0.22660500000000003</v>
+        <v>0.45321000000000006</v>
       </c>
       <c r="C11">
-        <v>0.23882500000000001</v>
+        <v>0.47765000000000002</v>
       </c>
       <c r="D11">
-        <v>0.27751999999999999</v>
+        <v>0.55503999999999998</v>
       </c>
       <c r="E11">
-        <v>5420</v>
+        <v>2710</v>
       </c>
       <c r="F11">
-        <v>4285</v>
+        <v>2142</v>
       </c>
       <c r="G11">
-        <v>3688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -3483,12 +3483,12 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0.05</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>6462</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>6715</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.15</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>6442</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.25</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>5743</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.3</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.35</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.4</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.45</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.49</v>
       </c>
@@ -3675,37 +3675,37 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
     </row>
   </sheetData>
